--- a/xample/editor/layout_editor.xlsx
+++ b/xample/editor/layout_editor.xlsx
@@ -284,7 +284,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="165">
   <si>
     <t xml:space="preserve">variable</t>
   </si>
@@ -615,6 +615,9 @@
     <t xml:space="preserve">clip</t>
   </si>
   <si>
+    <t xml:space="preserve">simpledialog</t>
+  </si>
+  <si>
     <t xml:space="preserve">Widget
 Name</t>
   </si>
@@ -707,9 +710,6 @@
   </si>
   <si>
     <t xml:space="preserve">messagebox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simpledialog</t>
   </si>
   <si>
     <t xml:space="preserve">toplevel</t>
@@ -876,7 +876,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -928,6 +928,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF2A6099"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -958,14 +966,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FF5983B0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF5983B0"/>
       <name val="Calibri"/>
@@ -989,6 +989,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FFB2B2B2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF5983B0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1101,7 +1109,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1154,42 +1162,42 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1274,6 +1282,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1282,7 +1294,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1290,7 +1302,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1339,7 +1351,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FF2A6099"/>
       <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -1386,9 +1398,9 @@
   <dimension ref="A1:AMJ66"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+      <selection pane="bottomLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1572,7 +1584,7 @@
       <c r="AMJ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -1597,7 +1609,7 @@
       <c r="AMJ8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -1616,7 +1628,7 @@
       <c r="AMJ9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="14" t="s">
@@ -1639,7 +1651,7 @@
       <c r="AMJ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="14" t="s">
@@ -1658,7 +1670,7 @@
       <c r="AMJ11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="14" t="s">
@@ -1675,7 +1687,7 @@
       <c r="AMJ12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="14" t="s">
@@ -1696,7 +1708,7 @@
       <c r="AMJ13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="14" t="s">
@@ -1715,7 +1727,7 @@
       <c r="AMJ14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>52</v>
       </c>
       <c r="B15" s="14" t="s">
@@ -1736,7 +1748,7 @@
       <c r="AMJ15" s="0"/>
     </row>
     <row r="16" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>52</v>
       </c>
       <c r="B16" s="14" t="s">
@@ -1757,19 +1769,19 @@
       <c r="AMJ16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="21"/>
+      <c r="E17" s="20"/>
       <c r="F17" s="15" t="s">
         <v>63</v>
       </c>
@@ -1780,19 +1792,19 @@
       <c r="AMJ17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="21"/>
+      <c r="E18" s="20"/>
       <c r="F18" s="15"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
@@ -1801,15 +1813,15 @@
       <c r="AMJ18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21" t="s">
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="20" t="s">
         <v>68</v>
       </c>
       <c r="F19" s="15" t="s">
@@ -1822,7 +1834,7 @@
       <c r="AMJ19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="13" t="s">
         <v>52</v>
       </c>
       <c r="B20" s="14" t="s">
@@ -1841,7 +1853,7 @@
       <c r="AMJ20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="13" t="s">
         <v>72</v>
       </c>
       <c r="B21" s="14" t="s">
@@ -1860,7 +1872,7 @@
       <c r="AMJ21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="13" t="s">
         <v>72</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -1879,7 +1891,7 @@
       <c r="AMJ22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="13" t="s">
         <v>72</v>
       </c>
       <c r="B23" s="14" t="s">
@@ -1921,10 +1933,10 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C26" s="14"/>
@@ -1932,10 +1944,10 @@
       <c r="E26" s="14"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C27" s="14"/>
@@ -1943,42 +1955,46 @@
       <c r="E27" s="14"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="21"/>
+      <c r="A28" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="20"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="14"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="14"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
@@ -2135,13 +2151,13 @@
     </row>
     <row r="2" s="28" customFormat="true" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D2" s="22" t="s">
         <v>9</v>
@@ -2165,77 +2181,77 @@
         <v>15</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" s="32" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K3" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2246,55 +2262,55 @@
         <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>30</v>
@@ -2309,86 +2325,86 @@
         <v>19</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D7" s="33"/>
       <c r="E7" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K7" s="34"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B9" s="35" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2399,319 +2415,319 @@
         <v>19</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B12" s="35" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B13" s="35" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B15" s="35" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K16" s="34"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B17" s="35" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D17" s="33"/>
       <c r="E17" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D18" s="33"/>
       <c r="E18" s="34"/>
       <c r="F18" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B19" s="35" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D19" s="33"/>
       <c r="E19" s="34"/>
       <c r="F19" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2722,7 +2738,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D20" s="33"/>
       <c r="E20" s="34"/>
@@ -2741,7 +2757,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D21" s="38"/>
       <c r="E21" s="39"/>
@@ -2760,7 +2776,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D22" s="33"/>
       <c r="E22" s="34"/>
@@ -2773,13 +2789,13 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B23" s="35" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D23" s="33"/>
       <c r="E23" s="34"/>
@@ -2798,7 +2814,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D24" s="33"/>
       <c r="E24" s="34"/>
@@ -2811,13 +2827,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="B25" s="35" t="s">
         <v>19</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D25" s="33"/>
       <c r="E25" s="34"/>
@@ -2836,7 +2852,7 @@
         <v>19</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D26" s="33"/>
       <c r="E26" s="34"/>
@@ -3960,7 +3976,7 @@
       <c r="F2" s="42"/>
     </row>
     <row r="3" s="14" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="21" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="15" t="s">
@@ -4095,49 +4111,49 @@
       <c r="F12" s="15"/>
     </row>
     <row r="13" s="14" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="21"/>
+      <c r="E13" s="20"/>
       <c r="F13" s="15" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="14" s="14" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="21"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="15"/>
     </row>
     <row r="15" s="14" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21" t="s">
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20" t="s">
         <v>68</v>
       </c>
       <c r="F15" s="15" t="s">
@@ -4191,7 +4207,7 @@
       </c>
     </row>
     <row r="20" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="21" t="s">
         <v>79</v>
       </c>
       <c r="F20" s="15"/>
@@ -4220,211 +4236,211 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="43" width="22.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="43" width="96.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="43" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="44" width="22.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="44" width="96.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="44" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="46" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="48" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="48" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="48" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="48" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="48" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="48" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="48" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="48" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="48" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="48" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="48" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="48" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="48" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="48" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="48" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="48" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="B18" s="48"/>
+      <c r="B18" s="49"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="48" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="48" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="48" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="48" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="48" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="48" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="48" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="26" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="49"/>
+    <row r="26" s="51" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="50"/>
     </row>
   </sheetData>
   <hyperlinks>
